--- a/spec/diary設計.xlsx
+++ b/spec/diary設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\takajava\udemy\resevation-app\spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C2985DC-063E-4738-9832-42D55CE030F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B0F846-2A4F-425D-A62F-B80ACC802798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{558642B4-9CB4-4107-AB4B-02EB74888843}"/>
+    <workbookView minimized="1" xWindow="756" yWindow="780" windowWidth="14664" windowHeight="9876" activeTab="3" xr2:uid="{558642B4-9CB4-4107-AB4B-02EB74888843}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2937,7 +2937,7 @@
   <dimension ref="B1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/spec/diary設計.xlsx
+++ b/spec/diary設計.xlsx
@@ -2,23 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\takajava\udemy\resevation-app\spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B0F846-2A4F-425D-A62F-B80ACC802798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A95C96-1096-4B66-B457-904580909F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="756" yWindow="780" windowWidth="14664" windowHeight="9876" activeTab="3" xr2:uid="{558642B4-9CB4-4107-AB4B-02EB74888843}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{558642B4-9CB4-4107-AB4B-02EB74888843}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="画面設計" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId3"/>
     <sheet name="項目整理" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="家計簿分類" sheetId="3" r:id="rId6"/>
+    <sheet name="フロー" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
+    <sheet name="家計簿分類" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1258,6 +1259,1696 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>99059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22D92C08-AE71-44A5-8247-21DF5AEB12F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6773636" y="330380"/>
+          <a:ext cx="3485061" cy="7452906"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>20955</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30E24BF2-2513-40CD-8271-A1946A7B85A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13482501" y="299901"/>
+          <a:ext cx="3479347" cy="7415350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CD98CA9-DAA4-47A2-B953-A5D42CEEDB7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1533525" y="1285875"/>
+          <a:ext cx="1581150" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>初期表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>179070</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>163830</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="コネクタ: カギ線 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DF96178-44A7-40D7-A241-63A1CB620494}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3112770" y="1695450"/>
+          <a:ext cx="5433060" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>135254</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>62865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E6A5795-8BAD-4750-BD80-1AE46C706B6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8517254" y="1205865"/>
+          <a:ext cx="2093595" cy="2070735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>検索処理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>154305</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>226695</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>59055</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{765CEF3F-D962-4D16-A8B6-431CEF0D963E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5183505" y="1369695"/>
+          <a:ext cx="1581150" cy="280035"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/diaries/serch/  </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="sng">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>87630</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8E868D4-917C-4324-8AE4-A131EA291D6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="87630" y="2491740"/>
+          <a:ext cx="1979295" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>17145</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>131445</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25287BF3-F5AD-452B-A7CD-F697A46A6DE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2531745" y="2636520"/>
+          <a:ext cx="1581150" cy="822960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>135256</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>181928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>131445</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="コネクタ: カギ線 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{284F2E77-88B8-42DA-B4A2-595F5B1F4808}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="1"/>
+          <a:endCxn id="13" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="4116706" y="2239328"/>
+          <a:ext cx="5444489" cy="808672"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>179071</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>153354</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>20956</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="コネクタ: カギ線 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{933A9273-D796-438C-8AF7-E5C63437D898}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="1"/>
+          <a:endCxn id="12" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2065021" y="2896554"/>
+          <a:ext cx="5290185" cy="151447"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D7A2D69-F603-4D96-A50A-5F95B859BFC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4625340" y="3888105"/>
+          <a:ext cx="1581150" cy="815340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>検索指示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>156755</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>176349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>105047</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123009</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4892DCE-4950-4290-B0FB-320885B46D84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3626576" y="3646170"/>
+          <a:ext cx="2193471" cy="871946"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>日付入力</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>変更</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>44904</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>205467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>52524</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>99876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7069C4AD-E513-4488-AEF2-E3C566A14FA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3310618" y="5525860"/>
+          <a:ext cx="2456906" cy="819695"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>データ部修正</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>103142</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>148727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>184241</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="コネクタ: カギ線 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F76C2F68-A38E-4B0B-A2E1-F6B38687C40F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="3"/>
+          <a:endCxn id="15" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5818142" y="4081191"/>
+          <a:ext cx="1752872" cy="266836"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="コネクタ: カギ線 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0BA2A4D-93A1-4B1A-912A-5B76CC124F88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6210300" y="2809875"/>
+          <a:ext cx="5429250" cy="1487805"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 61571"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E035CFB4-24A4-4CC8-B1F1-C404D764763C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7400926" y="3987165"/>
+          <a:ext cx="2019300" cy="287655"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/diaries/serch/yyyymmdd  </a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="sng">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>163830</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D5353C5-4A92-4EBE-BCE4-58F607136F8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14401800" y="5372100"/>
+          <a:ext cx="2106930" cy="1144905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>更新処理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>43815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94A1F463-3CC0-4C3B-AC32-0679216AE2DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7372350" y="5530215"/>
+          <a:ext cx="1581150" cy="813435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>更新指示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>953</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="コネクタ: カギ線 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDE6AE9C-039F-4E45-BC84-4CB0D9CD9A09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="3"/>
+          <a:endCxn id="29" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953500" y="5935980"/>
+          <a:ext cx="5448300" cy="8573"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>56334</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>222341</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="コネクタ: カギ線 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{168E0B86-A914-435D-830A-841D341643F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="3"/>
+          <a:endCxn id="31" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5771334" y="5935708"/>
+          <a:ext cx="1818730" cy="69669"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>17146</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>154306</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{091E0E91-5B84-4D54-913D-204A6A71AADC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10285096" y="5650230"/>
+          <a:ext cx="2023110" cy="293370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/diaries/register</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="sng">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>153353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>160021</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="コネクタ: カギ線 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69C4FB37-E7D0-41BF-87F8-88798C48C098}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="2"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="5743643" y="-2722993"/>
+          <a:ext cx="3663995" cy="14968402"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6239"/>
+            <a:gd name="adj2" fmla="val 101527"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>163287</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83548</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>25310</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="フローチャート: 判断 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4FBDE65-6383-4254-B2A5-4119606BCA24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="367394" y="3784691"/>
+          <a:ext cx="2107202" cy="610416"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>変更箇所</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>195401</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>97155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>33203</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85453</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="コネクタ: カギ線 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA11497F-A1A2-4615-B708-350664EF2705}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="48" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1215528" y="3540171"/>
+          <a:ext cx="450941" cy="41909"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>21500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>148727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>158660</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>158388</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="コネクタ: カギ線 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3805014-BCA4-41C9-9065-201F7118074E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="48" idx="3"/>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2470786" y="4081191"/>
+          <a:ext cx="1157695" cy="9661"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>195401</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>231320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>46810</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152671</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="コネクタ: カギ線 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7534AB6D-91C4-4804-A639-D2865B10CEB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="48" idx="2"/>
+          <a:endCxn id="18" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1595983" y="4219167"/>
+          <a:ext cx="1540601" cy="1892480"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -1543,7 +3234,37 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+      <a:lstStyle>
+        <a:defPPr algn="l">
+          <a:defRPr kumimoji="1" sz="1600">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:defRPr>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -2936,7 +4657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAD2863-2365-4E20-A89C-924B639CFA90}">
   <dimension ref="B1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -3205,6 +4926,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B37502-D4DA-4425-9B76-5E7CC9D27EEF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BQ38" sqref="BQ38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599BBB07-B4BB-4889-8283-C6735E9A8DF3}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3217,7 +4954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6F8AD26-33EA-4F77-B7A6-8BBB407EE9F0}">
   <dimension ref="B2:J28"/>
   <sheetViews>

--- a/spec/diary設計.xlsx
+++ b/spec/diary設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\takajava\udemy\resevation-app\spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A95C96-1096-4B66-B457-904580909F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA3BFA9-1A44-4E9A-ACEA-1EA2D7C057AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{558642B4-9CB4-4107-AB4B-02EB74888843}"/>
   </bookViews>
@@ -1436,7 +1436,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" strike="sngStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1456,10 +1456,10 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>163830</xdr:colOff>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>15486</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>100344</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1472,12 +1472,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="30" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3112770" y="1695450"/>
-          <a:ext cx="5433060" cy="12700"/>
+          <a:off x="9289940" y="1718641"/>
+          <a:ext cx="5427176" cy="5094"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -1506,15 +1507,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>70</xdr:col>
-      <xdr:colOff>135254</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>62865</xdr:rowOff>
+      <xdr:colOff>158196</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>82825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>80</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>163911</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>107424</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1529,8 +1530,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8517254" y="1205865"/>
-          <a:ext cx="2093595" cy="2070735"/>
+          <a:off x="14652761" y="3097695"/>
+          <a:ext cx="2076367" cy="1416077"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1629,14 +1630,14 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" u="sng" strike="sngStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>/diaries/serch/  </a:t>
+            <a:t>/initial</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="sng">
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="sng" strike="sngStrike" baseline="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -1788,15 +1789,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>135256</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>181928</xdr:rowOff>
+      <xdr:colOff>135255</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>70</xdr:col>
-      <xdr:colOff>131445</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>158196</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95125</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1813,9 +1814,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="4116706" y="2239328"/>
-          <a:ext cx="5444489" cy="808672"/>
+        <a:xfrm rot="10800000">
+          <a:off x="9246125" y="3091070"/>
+          <a:ext cx="5406636" cy="714664"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2192,15 +2193,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>70</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>157370</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>184537</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2217,12 +2218,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6210300" y="2809875"/>
-          <a:ext cx="5429250" cy="1487805"/>
+          <a:off x="9244220" y="4182717"/>
+          <a:ext cx="5407715" cy="176255"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 61571"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -2310,7 +2311,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>/diaries/serch/yyyymmdd  </a:t>
+            <a:t>/diaries/yyyymmdd  </a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="sng">
             <a:solidFill>
@@ -2946,6 +2947,128 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>15486</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>74543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>17390</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>126144</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CD5D454-E83B-49B8-B5F5-D02B1B3D2B65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14717116" y="1234108"/>
+          <a:ext cx="2072557" cy="979253"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" strike="sngStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>初期処理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>132522</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>149086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>31229</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="コネクタ: カギ線 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD5418B5-CA06-42A4-9784-C917CE3A921C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="9243392" y="2004390"/>
+          <a:ext cx="5489467" cy="819980"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4929,8 +5052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B37502-D4DA-4425-9B76-5E7CC9D27EEF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BQ38" sqref="BQ38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BI15" sqref="BI15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
